--- a/bin/Debug/net8.0-windows/InfoTech1_Quiz.xlsx
+++ b/bin/Debug/net8.0-windows/InfoTech1_Quiz.xlsx
@@ -1389,10 +1389,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="30.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
